--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>技能id</t>
   </si>
@@ -24,18 +24,27 @@
     <t>技能名称</t>
   </si>
   <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>is_normal_attack</t>
+  </si>
+  <si>
     <t>int;key</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>red_normal_attack</t>
   </si>
   <si>
@@ -51,7 +60,43 @@
     <t>等级</t>
   </si>
   <si>
+    <t>吟唱时间</t>
+  </si>
+  <si>
+    <t>前摇时间</t>
+  </si>
+  <si>
+    <t>引导时间</t>
+  </si>
+  <si>
+    <t>后摇时间</t>
+  </si>
+  <si>
+    <t>魔耗</t>
+  </si>
+  <si>
+    <t>技能cd</t>
+  </si>
+  <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>preparing_span</t>
+  </si>
+  <si>
+    <t>releasing_span</t>
+  </si>
+  <si>
+    <t>using_span</t>
+  </si>
+  <si>
+    <t>lasting_span</t>
+  </si>
+  <si>
+    <t>comsume_mp</t>
+  </si>
+  <si>
+    <t>cd</t>
   </si>
   <si>
     <t>int;group</t>
@@ -65,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +125,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,97 +253,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,30 +267,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,8 +474,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,24 +512,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,19 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +541,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,148 +573,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -684,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,15 +1073,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1084,60 +1124,81 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1166,17 +1227,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1217,124 +1282,394 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8970" activeTab="1"/>
+    <workbookView windowWidth="28455" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,103 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:target
+1:direction
+2:postion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+use_way=target时起效。
+0:self'
+1:friend (include self)
+2:enemy
+3:self and enemy
+4:friend exclude self
+5:all exclude self
+6 all</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+毫秒</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>技能id</t>
   </si>
@@ -27,6 +122,12 @@
     <t>普通攻击</t>
   </si>
   <si>
+    <t>使用方法</t>
+  </si>
+  <si>
+    <t>技能目标情况</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -36,6 +137,12 @@
     <t>is_normal_attack</t>
   </si>
   <si>
+    <t>use_way</t>
+  </si>
+  <si>
+    <t>target_case</t>
+  </si>
+  <si>
     <t>int;key</t>
   </si>
   <si>
@@ -45,6 +152,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>red_normal_attack</t>
   </si>
   <si>
@@ -78,6 +188,9 @@
     <t>技能cd</t>
   </si>
   <si>
+    <t>释放距离</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -99,10 +212,13 @@
     <t>cd</t>
   </si>
   <si>
+    <t>cast_distance</t>
+  </si>
+  <si>
     <t>int;group</t>
   </si>
   <si>
-    <t>int</t>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -110,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,16 +241,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +286,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -172,67 +305,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,19 +326,63 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,6 +393,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,24 +543,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,48 +555,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,78 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +587,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,21 +637,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +662,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,23 +679,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,17 +1189,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1124,7 +1240,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,71 +1250,113 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1221,19 +1379,20 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -1242,6 +1401,7 @@
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1282,87 +1442,96 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1385,10 +1554,13 @@
       <c r="H13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1411,10 +1583,13 @@
       <c r="H14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1437,10 +1612,13 @@
       <c r="H15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1463,10 +1641,13 @@
       <c r="H16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1489,10 +1670,13 @@
       <c r="H17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -1515,10 +1699,13 @@
       <c r="H18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1541,10 +1728,13 @@
       <c r="H19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1567,10 +1757,13 @@
       <c r="H20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -1593,10 +1786,13 @@
       <c r="H21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1619,10 +1815,13 @@
       <c r="H22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1645,10 +1844,13 @@
       <c r="H23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1670,12 +1872,16 @@
       </c>
       <c r="H24">
         <v>3</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12660" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>前摇时间</t>
   </si>
   <si>
-    <t>引导时间</t>
-  </si>
-  <si>
     <t>后摇时间</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
     <t>释放距离</t>
   </si>
   <si>
+    <t>能移动施法</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -200,9 +200,6 @@
     <t>releasing_span</t>
   </si>
   <si>
-    <t>using_span</t>
-  </si>
-  <si>
     <t>lasting_span</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>cast_distance</t>
+  </si>
+  <si>
+    <t>can_move</t>
   </si>
   <si>
     <t>int;group</t>
@@ -226,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1398,10 +1398,9 @@
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1523,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1549,13 +1548,13 @@
         <v>1000</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1578,13 +1577,13 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1607,13 +1606,13 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1636,13 +1635,13 @@
         <v>1000</v>
       </c>
       <c r="G16">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1665,13 +1664,13 @@
         <v>1000</v>
       </c>
       <c r="G17">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1694,13 +1693,13 @@
         <v>1000</v>
       </c>
       <c r="G18">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1723,13 +1722,13 @@
         <v>1000</v>
       </c>
       <c r="G19">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1752,13 +1751,13 @@
         <v>1000</v>
       </c>
       <c r="G20">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1781,13 +1780,13 @@
         <v>1000</v>
       </c>
       <c r="G21">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1810,13 +1809,13 @@
         <v>1000</v>
       </c>
       <c r="G22">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1839,13 +1838,13 @@
         <v>1000</v>
       </c>
       <c r="G23">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1868,13 +1867,13 @@
         <v>1000</v>
       </c>
       <c r="G24">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -1545,7 +1545,7 @@
         <v>1000</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -1574,7 +1574,7 @@
         <v>1000</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1603,7 +1603,7 @@
         <v>1000</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -1632,7 +1632,7 @@
         <v>1000</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -1661,7 +1661,7 @@
         <v>1000</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1681,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -1719,7 +1719,7 @@
         <v>1000</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D20">
         <v>1000</v>
@@ -1748,7 +1748,7 @@
         <v>1000</v>
       </c>
       <c r="F20">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D21">
         <v>1000</v>
@@ -1777,7 +1777,7 @@
         <v>1000</v>
       </c>
       <c r="F21">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D22">
         <v>1000</v>
@@ -1806,7 +1806,7 @@
         <v>1000</v>
       </c>
       <c r="F22">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D23">
         <v>1000</v>
@@ -1835,7 +1835,7 @@
         <v>1000</v>
       </c>
       <c r="F23">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1855,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D24">
         <v>1000</v>
@@ -1864,7 +1864,7 @@
         <v>1000</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>3</v>

--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>技能id</t>
   </si>
@@ -224,14 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,345 +234,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -586,251 +267,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,57 +281,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1183,64 +575,64 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1308,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1325,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>21</v>
       </c>
@@ -1342,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1359,40 +751,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -1403,45 +794,45 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1499,7 +890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1528,7 +919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1548,16 +939,16 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1577,16 +968,16 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1606,16 +997,16 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1635,16 +1026,16 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1664,16 +1055,16 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1693,16 +1084,16 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -1722,16 +1113,16 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -1751,16 +1142,16 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1780,16 +1171,16 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1809,16 +1200,16 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1838,16 +1229,16 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1867,36 +1258,35 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>技能id</t>
   </si>
@@ -155,9 +155,15 @@
     <t>int</t>
   </si>
   <si>
+    <t>[int]</t>
+  </si>
+  <si>
     <t>red_normal_attack</t>
   </si>
   <si>
+    <t>1;2</t>
+  </si>
+  <si>
     <t>red_magic_skill</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
     <t>能移动施法</t>
   </si>
   <si>
+    <t>技能效果</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
   </si>
   <si>
     <t>can_move</t>
+  </si>
+  <si>
+    <t>effect_ids</t>
   </si>
   <si>
     <t>int;group</t>
@@ -224,8 +236,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,32 +252,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,9 +598,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -281,10 +854,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -575,64 +1195,64 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -666,7 +1286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,15 +1300,15 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -696,16 +1316,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -713,16 +1333,16 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -730,16 +1350,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -747,43 +1367,44 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -794,105 +1415,111 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -913,13 +1540,16 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -947,8 +1577,11 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -976,8 +1609,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <v>1000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1005,8 +1641,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <v>1000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1034,8 +1673,11 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1063,8 +1705,11 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>1000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1092,8 +1737,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <v>1000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -1121,8 +1769,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -1150,8 +1801,11 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20">
+        <v>1000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1179,8 +1833,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21">
+        <v>1000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1208,8 +1865,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1237,8 +1897,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23">
+        <v>1000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1266,27 +1929,31 @@
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24">
+        <v>1000003</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -63,14 +63,36 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-use_way=target时起效。
 0:self'
 1:friend (include self)
-2:enemy
-3:self and enemy
-4:friend exclude self
-5:all exclude self
-6 all</t>
+2:enemy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：unknown
+1：Hero
+2：Soldier
+3：Monster
+4：Building
+5：Effect</t>
         </r>
       </text>
     </comment>
@@ -111,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>技能id</t>
   </si>
@@ -125,7 +147,10 @@
     <t>使用方法</t>
   </si>
   <si>
-    <t>技能目标情况</t>
+    <t xml:space="preserve">目标关系 </t>
+  </si>
+  <si>
+    <t>目标类型</t>
   </si>
   <si>
     <t>id</t>
@@ -140,7 +165,10 @@
     <t>use_way</t>
   </si>
   <si>
-    <t>target_case</t>
+    <t>target_relations</t>
+  </si>
+  <si>
+    <t>target_types</t>
   </si>
   <si>
     <t>int;key</t>
@@ -162,6 +190,9 @@
   </si>
   <si>
     <t>1;2</t>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
   </si>
   <si>
     <t>red_magic_skill</t>
@@ -239,9 +270,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -252,10 +283,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,22 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -307,32 +398,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,49 +420,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -405,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +627,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,38 +702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,30 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,17 +1232,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1252,7 +1283,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,47 +1299,56 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1317,15 +1357,18 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1334,15 +1377,18 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1351,15 +1397,18 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1368,7 +1417,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1458,95 +1510,95 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10">

--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView windowWidth="16095" windowHeight="26250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="level" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -269,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -283,16 +282,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +343,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,15 +395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,38 +405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,29 +425,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -436,187 +435,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,17 +629,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +664,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,15 +684,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,22 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1452,8 +1451,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1465,6 +1464,7 @@
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1000001</v>
+        <v>4000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1000002</v>
+        <v>4000002</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1000003</v>
+        <v>4000003</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1000001</v>
+        <v>4000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1000002</v>
+        <v>4000002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1000003</v>
+        <v>4000003</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1000001</v>
+        <v>4000001</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1000002</v>
+        <v>4000002</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1000003</v>
+        <v>4000003</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1000001</v>
+        <v>4000001</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1000002</v>
+        <v>4000002</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1000003</v>
+        <v>4000003</v>
       </c>
     </row>
   </sheetData>
@@ -1991,21 +1991,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="26250" activeTab="1"/>
+    <workbookView windowWidth="15480" windowHeight="26250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -270,8 +270,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -282,6 +282,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -289,9 +326,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,60 +386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,37 +411,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -435,187 +435,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,22 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +655,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,45 +726,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -734,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -1641,19 +1641,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -1673,19 +1673,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -1705,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>8</v>
@@ -1737,19 +1737,19 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <v>8</v>
@@ -1769,19 +1769,19 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H18">
         <v>8</v>
@@ -1801,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>8</v>
@@ -1833,19 +1833,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -1865,19 +1865,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E21">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E22">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>8</v>
@@ -1929,19 +1929,19 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <v>8</v>
@@ -1961,19 +1961,19 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="G24">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <v>8</v>

--- a/Data/Config/excel/skill/skill.xlsx
+++ b/Data/Config/excel/skill/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15480" windowHeight="26250" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -282,24 +282,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +305,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,9 +340,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,17 +413,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,46 +425,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -435,114 +435,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -550,72 +616,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,17 +629,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,11 +653,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,8 +695,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,30 +726,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -734,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1451,7 +1451,7 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
